--- a/exercicio04/estudo-tempo.xlsx
+++ b/exercicio04/estudo-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\senac\Mineracao_Analise_Dados\exercicio04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\181810032\Desktop\Mineracao_Analise_Dados\exercicio04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912626CD-00A3-46D3-A694-52262F7CD955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB94F0-4BA0-4EE1-A979-FE6AC4DC7D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C164498E-2B99-413C-BB3F-B932DC0A3EF3}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{C164498E-2B99-413C-BB3F-B932DC0A3EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>demanda:</t>
   </si>
@@ -75,7 +75,10 @@
     <t>backup da base de dados</t>
   </si>
   <si>
-    <t>Daniel Soares, Alexandre Peres, Danton Rodrigues</t>
+    <t>Danton Rodrigues</t>
+  </si>
+  <si>
+    <t>Trabalho 04</t>
   </si>
 </sst>
 </file>
@@ -111,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +455,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -464,12 +468,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -617,8 +624,12 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>45468.833333333336</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45468.875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
